--- a/week/weekTable.xlsx
+++ b/week/weekTable.xlsx
@@ -13,10 +13,176 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+  <si>
+    <t>date_bin</t>
+  </si>
+  <si>
+    <t>(2019-01-02, 2019-01-09]</t>
+  </si>
+  <si>
+    <t>(2019-01-09, 2019-01-16]</t>
+  </si>
+  <si>
+    <t>(2019-01-16, 2019-01-23]</t>
+  </si>
+  <si>
+    <t>(2019-01-23, 2019-01-30]</t>
+  </si>
+  <si>
+    <t>(2019-01-30, 2019-02-06]</t>
+  </si>
+  <si>
+    <t>(2019-02-06, 2019-02-13]</t>
+  </si>
+  <si>
+    <t>(2019-02-13, 2019-02-20]</t>
+  </si>
+  <si>
+    <t>(2019-02-20, 2019-02-27]</t>
+  </si>
+  <si>
+    <t>(2019-02-27, 2019-03-06]</t>
+  </si>
+  <si>
+    <t>(2019-03-06, 2019-03-13]</t>
+  </si>
+  <si>
+    <t>(2019-03-13, 2019-03-20]</t>
+  </si>
+  <si>
+    <t>(2019-03-20, 2019-03-27]</t>
+  </si>
+  <si>
+    <t>(2019-03-27, 2019-04-03]</t>
+  </si>
+  <si>
+    <t>(2019-04-03, 2019-04-10]</t>
+  </si>
+  <si>
+    <t>(2019-04-10, 2019-04-17]</t>
+  </si>
+  <si>
+    <t>(2019-04-17, 2019-04-24]</t>
+  </si>
+  <si>
+    <t>(2019-04-24, 2019-05-01]</t>
+  </si>
+  <si>
+    <t>(2019-05-01, 2019-05-08]</t>
+  </si>
+  <si>
+    <t>(2019-05-08, 2019-05-15]</t>
+  </si>
+  <si>
+    <t>(2019-05-15, 2019-05-22]</t>
+  </si>
+  <si>
+    <t>(2019-05-22, 2019-05-29]</t>
+  </si>
+  <si>
+    <t>(2019-05-29, 2019-06-05]</t>
+  </si>
+  <si>
+    <t>(2019-06-05, 2019-06-12]</t>
+  </si>
+  <si>
+    <t>(2019-06-12, 2019-06-19]</t>
+  </si>
+  <si>
+    <t>(2019-06-19, 2019-06-26]</t>
+  </si>
+  <si>
+    <t>(2019-06-26, 2019-07-03]</t>
+  </si>
+  <si>
+    <t>(2019-07-03, 2019-07-10]</t>
+  </si>
+  <si>
+    <t>(2019-07-10, 2019-07-17]</t>
+  </si>
+  <si>
+    <t>(2019-07-17, 2019-07-24]</t>
+  </si>
+  <si>
+    <t>(2019-07-24, 2019-07-31]</t>
+  </si>
+  <si>
+    <t>(2019-07-31, 2019-08-07]</t>
+  </si>
+  <si>
+    <t>(2019-08-07, 2019-08-14]</t>
+  </si>
+  <si>
+    <t>(2019-08-14, 2019-08-21]</t>
+  </si>
+  <si>
+    <t>(2019-08-21, 2019-08-28]</t>
+  </si>
+  <si>
+    <t>(2019-08-28, 2019-09-04]</t>
+  </si>
+  <si>
+    <t>(2019-09-04, 2019-09-11]</t>
+  </si>
+  <si>
+    <t>(2019-09-11, 2019-09-18]</t>
+  </si>
+  <si>
+    <t>(2019-09-18, 2019-09-25]</t>
+  </si>
+  <si>
+    <t>(2019-09-25, 2019-10-02]</t>
+  </si>
+  <si>
+    <t>(2019-10-02, 2019-10-09]</t>
+  </si>
+  <si>
+    <t>(2019-10-09, 2019-10-16]</t>
+  </si>
+  <si>
+    <t>(2019-10-16, 2019-10-23]</t>
+  </si>
+  <si>
+    <t>(2019-10-23, 2019-10-30]</t>
+  </si>
+  <si>
+    <t>(2019-10-30, 2019-11-06]</t>
+  </si>
+  <si>
+    <t>(2019-11-06, 2019-11-13]</t>
+  </si>
+  <si>
+    <t>(2019-11-13, 2019-11-20]</t>
+  </si>
+  <si>
+    <t>(2019-11-20, 2019-11-27]</t>
+  </si>
+  <si>
+    <t>(2019-11-27, 2019-12-04]</t>
+  </si>
+  <si>
+    <t>(2019-12-04, 2019-12-11]</t>
+  </si>
+  <si>
+    <t>(2019-12-11, 2019-12-18]</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +198,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +206,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +524,418 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/week/weekTable.xlsx
+++ b/week/weekTable.xlsx
@@ -14,9 +14,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="52">
   <si>
     <t>date_bin</t>
+  </si>
+  <si>
+    <t>(2018-12-26, 2019-01-02]</t>
   </si>
   <si>
     <t>(2019-01-02, 2019-01-09]</t>
@@ -524,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B51"/>
+  <dimension ref="A1:B52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -935,6 +938,14 @@
         <v>50</v>
       </c>
     </row>
+    <row r="52" spans="1:2">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
